--- a/kerjaan DEBORAH/RINCIAN SALDO SUPLIER'14.xlsx
+++ b/kerjaan DEBORAH/RINCIAN SALDO SUPLIER'14.xlsx
@@ -1,77 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="11295" windowHeight="5580" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="11295" windowHeight="5580" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AKB" sheetId="4" r:id="rId1"/>
     <sheet name="GIP" sheetId="6" r:id="rId2"/>
     <sheet name="GBL" sheetId="54" r:id="rId3"/>
     <sheet name="GBL (2)" sheetId="60" r:id="rId4"/>
-    <sheet name="VENT" sheetId="61" r:id="rId5"/>
-    <sheet name="HMP" sheetId="52" r:id="rId6"/>
-    <sheet name="HJP.TG" sheetId="11" r:id="rId7"/>
-    <sheet name="JKP" sheetId="12" r:id="rId8"/>
-    <sheet name="LIKIN" sheetId="62" r:id="rId9"/>
-    <sheet name="MAM" sheetId="8" r:id="rId10"/>
-    <sheet name="MCM" sheetId="9" r:id="rId11"/>
-    <sheet name="OCHIAI" sheetId="13" r:id="rId12"/>
-    <sheet name="PSC" sheetId="29" r:id="rId13"/>
-    <sheet name="ROOT" sheetId="55" r:id="rId14"/>
-    <sheet name="SAN" sheetId="17" r:id="rId15"/>
-    <sheet name="SIGMA" sheetId="15" r:id="rId16"/>
-    <sheet name="TAIYO" sheetId="56" r:id="rId17"/>
-    <sheet name="T.BOON" sheetId="14" r:id="rId18"/>
-    <sheet name="ZHE JIANG" sheetId="59" r:id="rId19"/>
-    <sheet name="ZUNLI" sheetId="58" r:id="rId20"/>
-    <sheet name="VTG" sheetId="57" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="63" r:id="rId5"/>
+    <sheet name="VENT" sheetId="61" r:id="rId6"/>
+    <sheet name="HMP" sheetId="52" r:id="rId7"/>
+    <sheet name="HJP.TG" sheetId="11" r:id="rId8"/>
+    <sheet name="JKP" sheetId="12" r:id="rId9"/>
+    <sheet name="LIKIN" sheetId="62" r:id="rId10"/>
+    <sheet name="MAM" sheetId="8" r:id="rId11"/>
+    <sheet name="MCM" sheetId="9" r:id="rId12"/>
+    <sheet name="OCHIAI" sheetId="13" r:id="rId13"/>
+    <sheet name="PSC" sheetId="29" r:id="rId14"/>
+    <sheet name="ROOT" sheetId="55" r:id="rId15"/>
+    <sheet name="SAN" sheetId="17" r:id="rId16"/>
+    <sheet name="SIGMA" sheetId="15" r:id="rId17"/>
+    <sheet name="TAIYO" sheetId="56" r:id="rId18"/>
+    <sheet name="T.BOON" sheetId="14" r:id="rId19"/>
+    <sheet name="ZHE JIANG" sheetId="59" r:id="rId20"/>
+    <sheet name="ZUNLI" sheetId="58" r:id="rId21"/>
+    <sheet name="VTG" sheetId="57" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">AKB!$B$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GBL!$B$1:$I$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'GBL (2)'!$B$1:$I$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GIP!$B$1:$G$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">HJP.TG!$B$1:$G$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">HMP!$B$1:$G$155</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JKP!$B$1:$G$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">LIKIN!$B$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">MAM!$B$1:$G$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">MCM!$B$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">OCHIAI!$B$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">PSC!$B$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">ROOT!$B$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">SAN!$B$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">SIGMA!$B$1:$G$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">T.BOON!$B$1:$G$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">TAIYO!$B$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">VENT!$B$1:$I$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">VTG!$B$1:$I$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'ZHE JIANG'!$B$1:$I$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">ZUNLI!$B$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">HJP.TG!$B$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">HMP!$B$1:$G$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">JKP!$B$1:$G$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">LIKIN!$B$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">MAM!$B$1:$G$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">MCM!$B$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">OCHIAI!$B$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">PSC!$B$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">ROOT!$B$1:$I$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">SAN!$B$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">SIGMA!$B$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">T.BOON!$B$1:$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">TAIYO!$B$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">VENT!$B$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">VTG!$B$1:$I$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'ZHE JIANG'!$B$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">ZUNLI!$B$1:$I$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">AKB!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">GBL!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'GBL (2)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">GIP!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">HJP.TG!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">HMP!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">JKP!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">OCHIAI!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">ROOT!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="16">TAIYO!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">VENT!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="20">VTG!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="18">'ZHE JIANG'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="19">ZUNLI!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">HJP.TG!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">HMP!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">JKP!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">OCHIAI!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">ROOT!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="17">TAIYO!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">VENT!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="21">VTG!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="19">'ZHE JIANG'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="20">ZUNLI!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="751">
   <si>
     <t>NAMA SUPLIER : PT GALUNGGUNG INDOSTEEL PERKASA</t>
   </si>
@@ -2279,6 +2280,51 @@
   </si>
   <si>
     <t>1030618</t>
+  </si>
+  <si>
+    <t>Tgl</t>
+  </si>
+  <si>
+    <t>No. Fakt, inv, nota</t>
+  </si>
+  <si>
+    <t>ket</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>KALO INVOICE = KREDIT</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALDO AKHIR </t>
+  </si>
+  <si>
+    <t>KALO BAYAR = DEBET</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>INV 1</t>
+  </si>
+  <si>
+    <t>KALO INVRETUR = DEBET</t>
+  </si>
+  <si>
+    <t>INV 2</t>
+  </si>
+  <si>
+    <t>INV 3</t>
+  </si>
+  <si>
+    <t>BAYAR 1</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2889,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
@@ -2859,8 +2905,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="699">
+  <cellXfs count="702">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4533,63 +4581,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4620,20 +4611,82 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Comma 5" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Normal 2 2" xfId="13"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 4 2" xfId="6"/>
     <cellStyle name="Normal 5" xfId="9"/>
     <cellStyle name="Normal 6" xfId="7"/>
     <cellStyle name="Normal 7" xfId="10"/>
+    <cellStyle name="Normal 8" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4957,24 +5010,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="668" t="s">
+      <c r="B1" s="682" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="668"/>
-      <c r="D1" s="668"/>
-      <c r="E1" s="668"/>
-      <c r="F1" s="668"/>
-      <c r="G1" s="668"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="682"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="682" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="668"/>
-      <c r="D2" s="668"/>
-      <c r="E2" s="668"/>
-      <c r="F2" s="668"/>
-      <c r="G2" s="668"/>
+      <c r="C2" s="682"/>
+      <c r="D2" s="682"/>
+      <c r="E2" s="682"/>
+      <c r="F2" s="682"/>
+      <c r="G2" s="682"/>
     </row>
     <row r="3" spans="2:10" ht="13.5" thickBot="1">
       <c r="B3" s="595"/>
@@ -4991,7 +5044,7 @@
       <c r="C4" s="566" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="683" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="600" t="s">
@@ -5003,10 +5056,10 @@
       <c r="G4" s="602" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5017,7 +5070,7 @@
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="670"/>
+      <c r="D5" s="684"/>
       <c r="E5" s="74" t="s">
         <v>16</v>
       </c>
@@ -5027,8 +5080,8 @@
       <c r="G5" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" thickTop="1">
       <c r="B6" s="565"/>
@@ -6486,6 +6539,280 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="164" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="82" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="40" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.75">
+      <c r="B1" s="686" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+    </row>
+    <row r="2" spans="2:10" ht="18.75">
+      <c r="B2" s="686" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B3" s="158"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B4" s="159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="687" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="291" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="685" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="685" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B5" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="688"/>
+      <c r="E5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="292" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickTop="1">
+      <c r="B6" s="174"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="293"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="271">
+        <v>41857</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="448"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="92">
+        <v>500000</v>
+      </c>
+      <c r="G7" s="456">
+        <f>F7</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="462"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="463"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="478"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="271"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="280">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="462"/>
+      <c r="C10" s="446"/>
+      <c r="D10" s="461"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="478">
+        <f>G9-E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="271"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="473"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="492"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="493"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="473"/>
+    </row>
+    <row r="13" spans="2:10" s="54" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B13" s="358"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="352"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="356"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickTop="1">
+      <c r="B14" s="449"/>
+      <c r="C14" s="450"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="452"/>
+      <c r="F14" s="452"/>
+      <c r="G14" s="453"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="165"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="454"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="455"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="165"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="454"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="455"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="165"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="454"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="455"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="165"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="454"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="455"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="165"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="454"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="455"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="165"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="454"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="455"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="165"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="454"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="455"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="176"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="294"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="176"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="294"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <pageMargins left="0.31496062992125984" right="0.47244094488188981" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J24"/>
   <sheetViews>
@@ -6511,24 +6838,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -6545,7 +6872,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -6557,10 +6884,10 @@
       <c r="G4" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6571,7 +6898,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -6581,8 +6908,8 @@
       <c r="G5" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickTop="1">
       <c r="B6" s="174"/>
@@ -6809,7 +7136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
@@ -6836,24 +7163,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="177"/>
@@ -6868,7 +7195,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -6880,10 +7207,10 @@
       <c r="G4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6894,7 +7221,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -6904,8 +7231,8 @@
       <c r="G5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickTop="1">
       <c r="B6" s="163"/>
@@ -7040,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -7077,14 +7404,14 @@
       <c r="H1" s="71"/>
     </row>
     <row r="2" spans="2:11" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
@@ -7101,7 +7428,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -7114,10 +7441,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="86"/>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7128,7 +7455,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -7139,8 +7466,8 @@
         <v>17</v>
       </c>
       <c r="H5" s="87"/>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:11" s="40" customFormat="1" ht="15.75" thickTop="1">
       <c r="B6" s="174"/>
@@ -7791,7 +8118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J26"/>
   <sheetViews>
@@ -7815,24 +8142,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="68"/>
@@ -7847,7 +8174,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -7859,10 +8186,10 @@
       <c r="G4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7873,7 +8200,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -7883,8 +8210,8 @@
       <c r="G5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickTop="1">
       <c r="B6" s="197"/>
@@ -8097,7 +8424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L10"/>
   <sheetViews>
@@ -8124,28 +8451,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -8162,22 +8489,22 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="675" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="675" t="s">
+      <c r="L4" s="689" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8206,8 +8533,8 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="675"/>
-      <c r="L5" s="675"/>
+      <c r="K5" s="689"/>
+      <c r="L5" s="689"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickTop="1">
       <c r="B6" s="161"/>
@@ -8285,7 +8612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G15"/>
   <sheetViews>
@@ -8307,24 +8634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75">
-      <c r="B1" s="682" t="s">
+      <c r="B1" s="696" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
     </row>
     <row r="2" spans="2:7" ht="18.75">
-      <c r="B2" s="682" t="s">
+      <c r="B2" s="696" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
+      <c r="C2" s="696"/>
+      <c r="D2" s="696"/>
+      <c r="E2" s="696"/>
+      <c r="F2" s="696"/>
+      <c r="G2" s="696"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1">
       <c r="B3" s="181"/>
@@ -8340,7 +8667,7 @@
       <c r="C4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="683" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -8360,7 +8687,7 @@
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="670"/>
+      <c r="D5" s="684"/>
       <c r="E5" s="36" t="s">
         <v>16</v>
       </c>
@@ -8495,7 +8822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -8519,24 +8846,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="B1" s="682" t="s">
+      <c r="B1" s="696" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="B2" s="682" t="s">
+      <c r="B2" s="696" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
+      <c r="C2" s="696"/>
+      <c r="D2" s="696"/>
+      <c r="E2" s="696"/>
+      <c r="F2" s="696"/>
+      <c r="G2" s="696"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="B3" s="181"/>
@@ -8553,7 +8880,7 @@
       <c r="C4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="683" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -8565,10 +8892,10 @@
       <c r="G4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8579,7 +8906,7 @@
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="670"/>
+      <c r="D5" s="684"/>
       <c r="E5" s="36" t="s">
         <v>16</v>
       </c>
@@ -8589,8 +8916,8 @@
       <c r="G5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickTop="1">
       <c r="B6" s="183"/>
@@ -9435,7 +9762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L25"/>
   <sheetViews>
@@ -9463,28 +9790,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -9501,22 +9828,22 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="675" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="675" t="s">
+      <c r="L4" s="689" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9545,8 +9872,8 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="675"/>
-      <c r="L5" s="675"/>
+      <c r="K5" s="689"/>
+      <c r="L5" s="689"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickTop="1">
       <c r="B6" s="161"/>
@@ -9953,7 +10280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J35"/>
   <sheetViews>
@@ -9977,24 +10304,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="682" t="s">
+      <c r="B1" s="696" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="682" t="s">
+      <c r="B2" s="696" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
+      <c r="C2" s="696"/>
+      <c r="D2" s="696"/>
+      <c r="E2" s="696"/>
+      <c r="F2" s="696"/>
+      <c r="G2" s="696"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="185"/>
@@ -10011,7 +10338,7 @@
       <c r="C4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="683" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -10023,10 +10350,10 @@
       <c r="G4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10037,7 +10364,7 @@
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="670"/>
+      <c r="D5" s="684"/>
       <c r="E5" s="36" t="s">
         <v>16</v>
       </c>
@@ -10047,8 +10374,8 @@
       <c r="G5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickTop="1">
       <c r="B6" s="186"/>
@@ -10370,556 +10697,6 @@
   </mergeCells>
   <pageMargins left="0.47" right="0.23622047244094491" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="697" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="406" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="104" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="104" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="18.75">
-      <c r="B1" s="672" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-    </row>
-    <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="672" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="687"/>
-      <c r="C3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B4" s="688" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="680" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="675" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="675" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B5" s="689" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="408" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="428" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="408" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="675"/>
-      <c r="L5" s="675"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickTop="1">
-      <c r="B6" s="690"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="403"/>
-      <c r="I6" s="628"/>
-    </row>
-    <row r="7" spans="2:12" s="321" customFormat="1">
-      <c r="B7" s="691">
-        <v>41639</v>
-      </c>
-      <c r="C7" s="258" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="407"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="574">
-        <f>H6+F7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="629">
-        <f>G7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="692">
-        <v>41717</v>
-      </c>
-      <c r="C8" s="207" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="397"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="397">
-        <v>4265.3500000000004</v>
-      </c>
-      <c r="G8" s="150">
-        <v>49460998.600000001</v>
-      </c>
-      <c r="H8" s="574">
-        <f>H7+F8</f>
-        <v>4265.3500000000004</v>
-      </c>
-      <c r="I8" s="474">
-        <f>I7+G8</f>
-        <v>49460998.600000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="692">
-        <v>41745</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="397"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="397">
-        <v>21444.9</v>
-      </c>
-      <c r="G9" s="150">
-        <v>241705467.90000001</v>
-      </c>
-      <c r="H9" s="630">
-        <f>H8+F9</f>
-        <v>25710.25</v>
-      </c>
-      <c r="I9" s="629">
-        <f>I8+G9</f>
-        <v>291166466.5</v>
-      </c>
-      <c r="J9" s="321"/>
-      <c r="K9" s="272"/>
-      <c r="L9" s="272"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="693">
-        <v>41757</v>
-      </c>
-      <c r="C10" s="371" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="396">
-        <v>4265.3500000000004</v>
-      </c>
-      <c r="E10" s="195">
-        <v>49460999</v>
-      </c>
-      <c r="F10" s="396"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="630">
-        <f>H9+F10-D10</f>
-        <v>21444.9</v>
-      </c>
-      <c r="I10" s="629">
-        <f>I9-E10</f>
-        <v>241705467.5</v>
-      </c>
-      <c r="J10" s="321"/>
-      <c r="K10" s="272"/>
-      <c r="L10" s="272"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="693">
-        <v>41757</v>
-      </c>
-      <c r="C11" s="371" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="396">
-        <v>21444.9</v>
-      </c>
-      <c r="E11" s="195">
-        <v>241705468</v>
-      </c>
-      <c r="F11" s="397"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="414">
-        <f>H10-D11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="457">
-        <v>0</v>
-      </c>
-      <c r="J11" s="321"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="692">
-        <v>41773</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="D12" s="396"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="397">
-        <v>11767.8</v>
-      </c>
-      <c r="G12" s="150">
-        <f>F12*11537</f>
-        <v>135765108.59999999</v>
-      </c>
-      <c r="H12" s="630">
-        <f>F12</f>
-        <v>11767.8</v>
-      </c>
-      <c r="I12" s="629">
-        <f>G12</f>
-        <v>135765108.59999999</v>
-      </c>
-      <c r="J12" s="321"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="695">
-        <v>41780</v>
-      </c>
-      <c r="C13" s="458" t="s">
-        <v>438</v>
-      </c>
-      <c r="D13" s="459">
-        <v>11767.8</v>
-      </c>
-      <c r="E13" s="395">
-        <v>135765109</v>
-      </c>
-      <c r="F13" s="400"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="414">
-        <f>H12-D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="457">
-        <f>I12-E13</f>
-        <v>-0.40000000596046448</v>
-      </c>
-      <c r="J13" s="321"/>
-      <c r="K13" s="272"/>
-      <c r="L13" s="272"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="694">
-        <v>41807</v>
-      </c>
-      <c r="C14" s="324" t="s">
-        <v>550</v>
-      </c>
-      <c r="D14" s="459"/>
-      <c r="E14" s="482"/>
-      <c r="F14" s="400">
-        <v>16420.5</v>
-      </c>
-      <c r="G14" s="320">
-        <f>F14*11740</f>
-        <v>192776670</v>
-      </c>
-      <c r="H14" s="410">
-        <f>F14</f>
-        <v>16420.5</v>
-      </c>
-      <c r="I14" s="474">
-        <f>G14</f>
-        <v>192776670</v>
-      </c>
-      <c r="J14" s="321"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="695">
-        <v>41841</v>
-      </c>
-      <c r="C15" s="458" t="s">
-        <v>577</v>
-      </c>
-      <c r="D15" s="459">
-        <v>16420.5</v>
-      </c>
-      <c r="E15" s="656">
-        <v>192776670</v>
-      </c>
-      <c r="F15" s="400"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="659">
-        <f>H14-D15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="457">
-        <f>I14-E15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="321"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="272"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="694">
-        <v>41844</v>
-      </c>
-      <c r="C16" s="324" t="s">
-        <v>647</v>
-      </c>
-      <c r="D16" s="459"/>
-      <c r="E16" s="656"/>
-      <c r="F16" s="400">
-        <v>16792.2</v>
-      </c>
-      <c r="G16" s="320">
-        <v>198114375.59999999</v>
-      </c>
-      <c r="H16" s="662">
-        <f>F16</f>
-        <v>16792.2</v>
-      </c>
-      <c r="I16" s="474">
-        <f>G16</f>
-        <v>198114375.59999999</v>
-      </c>
-      <c r="J16" s="321"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="272"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="694">
-        <v>41864</v>
-      </c>
-      <c r="C17" s="324" t="s">
-        <v>682</v>
-      </c>
-      <c r="D17" s="459"/>
-      <c r="E17" s="656"/>
-      <c r="F17" s="400">
-        <v>7793.5</v>
-      </c>
-      <c r="G17" s="320">
-        <v>90334459</v>
-      </c>
-      <c r="H17" s="525">
-        <f>H16+F17-D17</f>
-        <v>24585.7</v>
-      </c>
-      <c r="I17" s="629">
-        <f>I16+G17-E17</f>
-        <v>288448834.60000002</v>
-      </c>
-      <c r="J17" s="321"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="272"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="695">
-        <v>41876</v>
-      </c>
-      <c r="C18" s="458" t="s">
-        <v>681</v>
-      </c>
-      <c r="D18" s="459">
-        <v>16792.2</v>
-      </c>
-      <c r="E18" s="656">
-        <v>198114376</v>
-      </c>
-      <c r="F18" s="400"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="525">
-        <f t="shared" ref="H18:H21" si="0">H17+F18-D18</f>
-        <v>7793.5</v>
-      </c>
-      <c r="I18" s="629">
-        <f t="shared" ref="I18:I21" si="1">I17+G18-E18</f>
-        <v>90334458.600000024</v>
-      </c>
-      <c r="J18" s="321"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="272"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="695">
-        <v>41876</v>
-      </c>
-      <c r="C19" s="458" t="s">
-        <v>681</v>
-      </c>
-      <c r="D19" s="459">
-        <v>7793.5</v>
-      </c>
-      <c r="E19" s="656">
-        <v>90334459</v>
-      </c>
-      <c r="F19" s="400"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="659">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="457">
-        <f t="shared" si="1"/>
-        <v>-0.39999997615814209</v>
-      </c>
-      <c r="J19" s="321"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="272"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="694"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="459"/>
-      <c r="E20" s="656"/>
-      <c r="F20" s="400"/>
-      <c r="G20" s="320"/>
-      <c r="H20" s="662">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="629">
-        <f t="shared" si="1"/>
-        <v>-0.39999997615814209</v>
-      </c>
-      <c r="J20" s="321"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="694"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="459"/>
-      <c r="E21" s="656"/>
-      <c r="F21" s="400"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="662">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="629">
-        <f t="shared" si="1"/>
-        <v>-0.39999997615814209</v>
-      </c>
-      <c r="J21" s="321"/>
-      <c r="K21" s="272"/>
-      <c r="L21" s="272"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="694"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="459"/>
-      <c r="E22" s="656"/>
-      <c r="F22" s="400"/>
-      <c r="G22" s="320"/>
-      <c r="H22" s="525"/>
-      <c r="I22" s="474"/>
-      <c r="J22" s="321"/>
-      <c r="K22" s="272"/>
-      <c r="L22" s="272"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B23" s="696"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="483"/>
-      <c r="G23" s="483"/>
-      <c r="H23" s="401"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="321"/>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
-  <pageMargins left="0.39" right="0.2" top="0.39370078740157483" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -10953,24 +10730,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -10985,7 +10762,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -10997,10 +10774,10 @@
       <c r="G4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="675" t="s">
+      <c r="I4" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="675" t="s">
+      <c r="J4" s="689" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11011,7 +10788,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -11021,8 +10798,8 @@
       <c r="G5" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="675"/>
-      <c r="J5" s="675"/>
+      <c r="I5" s="689"/>
+      <c r="J5" s="689"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickTop="1">
       <c r="B6" s="161"/>
@@ -13503,21 +13280,22 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L16"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="697" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="678" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="40" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="40" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" style="52" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="406" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="53" customWidth="1"/>
@@ -13528,31 +13306,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75">
-      <c r="B1" s="672" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="B1" s="686" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="687"/>
+      <c r="B3" s="668"/>
       <c r="C3" s="41"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -13560,33 +13338,33 @@
       <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="669" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="675" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="675" t="s">
+      <c r="L4" s="689" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B5" s="689" t="s">
+      <c r="B5" s="670" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -13607,24 +13385,24 @@
       <c r="H5" s="428" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="408" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="675"/>
-      <c r="L5" s="675"/>
+      <c r="K5" s="689"/>
+      <c r="L5" s="689"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickTop="1">
-      <c r="B6" s="690"/>
+      <c r="B6" s="671"/>
       <c r="C6" s="93"/>
       <c r="D6" s="94"/>
       <c r="E6" s="195"/>
       <c r="F6" s="92"/>
       <c r="G6" s="150"/>
       <c r="H6" s="403"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="628"/>
     </row>
     <row r="7" spans="2:12" s="321" customFormat="1">
-      <c r="B7" s="691">
+      <c r="B7" s="672">
         <v>41639</v>
       </c>
       <c r="C7" s="258" t="s">
@@ -13638,7 +13416,7 @@
         <f>H6+F7-D7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="196">
+      <c r="I7" s="629">
         <f>G7</f>
         <v>0</v>
       </c>
@@ -13646,150 +13424,392 @@
       <c r="L7" s="272"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="692">
-        <v>41694</v>
+      <c r="B8" s="673">
+        <v>41717</v>
       </c>
       <c r="C8" s="207" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="D8" s="397"/>
       <c r="E8" s="147"/>
       <c r="F8" s="397">
-        <v>2640</v>
+        <v>4265.3500000000004</v>
       </c>
       <c r="G8" s="150">
-        <f>F8*12251</f>
-        <v>32342640</v>
+        <v>49460998.600000001</v>
       </c>
       <c r="H8" s="574">
         <f>H7+F8</f>
-        <v>2640</v>
+        <v>4265.3500000000004</v>
       </c>
       <c r="I8" s="474">
         <f>I7+G8</f>
-        <v>32342640</v>
+        <v>49460998.600000001</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="693">
-        <v>41710</v>
-      </c>
-      <c r="C9" s="371" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="396">
-        <v>2640</v>
-      </c>
-      <c r="E9" s="195">
-        <v>32342640</v>
-      </c>
-      <c r="F9" s="397"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="414">
-        <f>H8-D9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="457">
-        <f>I8-E9</f>
-        <v>0</v>
+      <c r="B9" s="673">
+        <v>41745</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="397"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="397">
+        <v>21444.9</v>
+      </c>
+      <c r="G9" s="150">
+        <v>241705467.90000001</v>
+      </c>
+      <c r="H9" s="630">
+        <f>H8+F9</f>
+        <v>25710.25</v>
+      </c>
+      <c r="I9" s="629">
+        <f>I8+G9</f>
+        <v>291166466.5</v>
       </c>
       <c r="J9" s="321"/>
       <c r="K9" s="272"/>
       <c r="L9" s="272"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="692">
-        <v>41808</v>
-      </c>
-      <c r="C10" s="667" t="s">
-        <v>735</v>
-      </c>
-      <c r="D10" s="397"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="397">
-        <v>66000</v>
-      </c>
-      <c r="G10" s="150">
-        <v>778668000</v>
-      </c>
-      <c r="H10" s="574">
-        <f>F10</f>
-        <v>66000</v>
-      </c>
-      <c r="I10" s="474">
-        <f>G10</f>
-        <v>778668000</v>
+      <c r="B10" s="674">
+        <v>41757</v>
+      </c>
+      <c r="C10" s="371" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="396">
+        <v>4265.3500000000004</v>
+      </c>
+      <c r="E10" s="195">
+        <v>49460999</v>
+      </c>
+      <c r="F10" s="396"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="630">
+        <f>H9+F10-D10</f>
+        <v>21444.9</v>
+      </c>
+      <c r="I10" s="629">
+        <f>I9-E10</f>
+        <v>241705467.5</v>
       </c>
       <c r="J10" s="321"/>
       <c r="K10" s="272"/>
       <c r="L10" s="272"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="692"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="147"/>
+      <c r="B11" s="674">
+        <v>41757</v>
+      </c>
+      <c r="C11" s="371" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="396">
+        <v>21444.9</v>
+      </c>
+      <c r="E11" s="195">
+        <v>241705468</v>
+      </c>
       <c r="F11" s="397"/>
       <c r="G11" s="150"/>
-      <c r="H11" s="410"/>
-      <c r="I11" s="457"/>
+      <c r="H11" s="414">
+        <f>H10-D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="457">
+        <v>0</v>
+      </c>
       <c r="J11" s="321"/>
       <c r="K11" s="272"/>
       <c r="L11" s="272"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="693"/>
-      <c r="C12" s="371"/>
+      <c r="B12" s="673">
+        <v>41773</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>492</v>
+      </c>
       <c r="D12" s="396"/>
       <c r="E12" s="147"/>
-      <c r="F12" s="397"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="574"/>
-      <c r="I12" s="409"/>
+      <c r="F12" s="397">
+        <v>11767.8</v>
+      </c>
+      <c r="G12" s="150">
+        <f>F12*11537</f>
+        <v>135765108.59999999</v>
+      </c>
+      <c r="H12" s="630">
+        <f>F12</f>
+        <v>11767.8</v>
+      </c>
+      <c r="I12" s="629">
+        <f>G12</f>
+        <v>135765108.59999999</v>
+      </c>
       <c r="J12" s="321"/>
       <c r="K12" s="272"/>
       <c r="L12" s="272"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="694"/>
-      <c r="C13" s="324"/>
-      <c r="D13" s="400"/>
-      <c r="E13" s="325"/>
+      <c r="B13" s="676">
+        <v>41780</v>
+      </c>
+      <c r="C13" s="458" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="459">
+        <v>11767.8</v>
+      </c>
+      <c r="E13" s="395">
+        <v>135765109</v>
+      </c>
       <c r="F13" s="400"/>
       <c r="G13" s="320"/>
-      <c r="H13" s="403"/>
-      <c r="I13" s="196"/>
+      <c r="H13" s="414">
+        <f>H12-D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="457">
+        <f>I12-E13</f>
+        <v>-0.40000000596046448</v>
+      </c>
       <c r="J13" s="321"/>
       <c r="K13" s="272"/>
       <c r="L13" s="272"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="695"/>
-      <c r="C14" s="458"/>
+      <c r="B14" s="675">
+        <v>41807</v>
+      </c>
+      <c r="C14" s="324" t="s">
+        <v>550</v>
+      </c>
       <c r="D14" s="459"/>
       <c r="E14" s="482"/>
-      <c r="F14" s="400"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="403"/>
-      <c r="I14" s="409"/>
+      <c r="F14" s="400">
+        <v>16420.5</v>
+      </c>
+      <c r="G14" s="320">
+        <f>F14*11740</f>
+        <v>192776670</v>
+      </c>
+      <c r="H14" s="410">
+        <f>F14</f>
+        <v>16420.5</v>
+      </c>
+      <c r="I14" s="474">
+        <f>G14</f>
+        <v>192776670</v>
+      </c>
       <c r="J14" s="321"/>
       <c r="K14" s="272"/>
       <c r="L14" s="272"/>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B15" s="696"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="401"/>
-      <c r="I15" s="305"/>
+    <row r="15" spans="2:12">
+      <c r="B15" s="676">
+        <v>41841</v>
+      </c>
+      <c r="C15" s="458" t="s">
+        <v>577</v>
+      </c>
+      <c r="D15" s="459">
+        <v>16420.5</v>
+      </c>
+      <c r="E15" s="656">
+        <v>192776670</v>
+      </c>
+      <c r="F15" s="400"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="659">
+        <f>H14-D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="457">
+        <f>I14-E15</f>
+        <v>0</v>
+      </c>
       <c r="J15" s="321"/>
       <c r="K15" s="272"/>
       <c r="L15" s="272"/>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1"/>
+    <row r="16" spans="2:12">
+      <c r="B16" s="675">
+        <v>41844</v>
+      </c>
+      <c r="C16" s="324" t="s">
+        <v>647</v>
+      </c>
+      <c r="D16" s="459"/>
+      <c r="E16" s="656"/>
+      <c r="F16" s="400">
+        <v>16792.2</v>
+      </c>
+      <c r="G16" s="320">
+        <v>198114375.59999999</v>
+      </c>
+      <c r="H16" s="662">
+        <f>F16</f>
+        <v>16792.2</v>
+      </c>
+      <c r="I16" s="474">
+        <f>G16</f>
+        <v>198114375.59999999</v>
+      </c>
+      <c r="J16" s="321"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="272"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="675">
+        <v>41864</v>
+      </c>
+      <c r="C17" s="324" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17" s="459"/>
+      <c r="E17" s="656"/>
+      <c r="F17" s="400">
+        <v>7793.5</v>
+      </c>
+      <c r="G17" s="320">
+        <v>90334459</v>
+      </c>
+      <c r="H17" s="525">
+        <f>H16+F17-D17</f>
+        <v>24585.7</v>
+      </c>
+      <c r="I17" s="629">
+        <f>I16+G17-E17</f>
+        <v>288448834.60000002</v>
+      </c>
+      <c r="J17" s="321"/>
+      <c r="K17" s="272"/>
+      <c r="L17" s="272"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="676">
+        <v>41876</v>
+      </c>
+      <c r="C18" s="458" t="s">
+        <v>681</v>
+      </c>
+      <c r="D18" s="459">
+        <v>16792.2</v>
+      </c>
+      <c r="E18" s="656">
+        <v>198114376</v>
+      </c>
+      <c r="F18" s="400"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="525">
+        <f t="shared" ref="H18:H21" si="0">H17+F18-D18</f>
+        <v>7793.5</v>
+      </c>
+      <c r="I18" s="629">
+        <f t="shared" ref="I18:I21" si="1">I17+G18-E18</f>
+        <v>90334458.600000024</v>
+      </c>
+      <c r="J18" s="321"/>
+      <c r="K18" s="272"/>
+      <c r="L18" s="272"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="676">
+        <v>41876</v>
+      </c>
+      <c r="C19" s="458" t="s">
+        <v>681</v>
+      </c>
+      <c r="D19" s="459">
+        <v>7793.5</v>
+      </c>
+      <c r="E19" s="656">
+        <v>90334459</v>
+      </c>
+      <c r="F19" s="400"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="659">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="457">
+        <f t="shared" si="1"/>
+        <v>-0.39999997615814209</v>
+      </c>
+      <c r="J19" s="321"/>
+      <c r="K19" s="272"/>
+      <c r="L19" s="272"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="675"/>
+      <c r="C20" s="324"/>
+      <c r="D20" s="459"/>
+      <c r="E20" s="656"/>
+      <c r="F20" s="400"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="662">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="629">
+        <f t="shared" si="1"/>
+        <v>-0.39999997615814209</v>
+      </c>
+      <c r="J20" s="321"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="675"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="459"/>
+      <c r="E21" s="656"/>
+      <c r="F21" s="400"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="662">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="629">
+        <f t="shared" si="1"/>
+        <v>-0.39999997615814209</v>
+      </c>
+      <c r="J21" s="321"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="675"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="459"/>
+      <c r="E22" s="656"/>
+      <c r="F22" s="400"/>
+      <c r="G22" s="320"/>
+      <c r="H22" s="525"/>
+      <c r="I22" s="474"/>
+      <c r="J22" s="321"/>
+      <c r="K22" s="272"/>
+      <c r="L22" s="272"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B23" s="677"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="483"/>
+      <c r="G23" s="483"/>
+      <c r="H23" s="401"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="321"/>
+      <c r="K23" s="272"/>
+      <c r="L23" s="272"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="L4:L5"/>
@@ -13810,6 +13830,313 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="678" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="406" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="104" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="104" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="18.75">
+      <c r="B1" s="686" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
+    </row>
+    <row r="2" spans="2:12" ht="18.75">
+      <c r="B2" s="686" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B3" s="668"/>
+      <c r="C3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B4" s="669" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="694" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="693"/>
+      <c r="K4" s="689" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="689" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B5" s="670" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="408" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="428" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="689"/>
+      <c r="L5" s="689"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickTop="1">
+      <c r="B6" s="671"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:12" s="321" customFormat="1">
+      <c r="B7" s="672">
+        <v>41639</v>
+      </c>
+      <c r="C7" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="407"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="574">
+        <f>H6+F7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="196">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="673">
+        <v>41694</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="397"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="397">
+        <v>2640</v>
+      </c>
+      <c r="G8" s="150">
+        <f>F8*12251</f>
+        <v>32342640</v>
+      </c>
+      <c r="H8" s="574">
+        <f>H7+F8</f>
+        <v>2640</v>
+      </c>
+      <c r="I8" s="474">
+        <f>I7+G8</f>
+        <v>32342640</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="674">
+        <v>41710</v>
+      </c>
+      <c r="C9" s="371" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="396">
+        <v>2640</v>
+      </c>
+      <c r="E9" s="195">
+        <v>32342640</v>
+      </c>
+      <c r="F9" s="397"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="414">
+        <f>H8-D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="457">
+        <f>I8-E9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="321"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="272"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="673">
+        <v>41808</v>
+      </c>
+      <c r="C10" s="667" t="s">
+        <v>735</v>
+      </c>
+      <c r="D10" s="397"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="397">
+        <v>66000</v>
+      </c>
+      <c r="G10" s="150">
+        <v>778668000</v>
+      </c>
+      <c r="H10" s="574">
+        <f>F10</f>
+        <v>66000</v>
+      </c>
+      <c r="I10" s="474">
+        <f>G10</f>
+        <v>778668000</v>
+      </c>
+      <c r="J10" s="321"/>
+      <c r="K10" s="272"/>
+      <c r="L10" s="272"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="673"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="397"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="410"/>
+      <c r="I11" s="457"/>
+      <c r="J11" s="321"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="674"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="396"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="397"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="574"/>
+      <c r="I12" s="409"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="272"/>
+      <c r="L12" s="272"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="675"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="400"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="272"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="676"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="459"/>
+      <c r="E14" s="482"/>
+      <c r="F14" s="400"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="409"/>
+      <c r="J14" s="321"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="272"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B15" s="677"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="401"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="321"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="272"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:K5"/>
+  </mergeCells>
+  <pageMargins left="0.39" right="0.2" top="0.39370078740157483" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13822,7 +14149,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="697" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="678" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="40" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" style="40" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" style="52" customWidth="1"/>
@@ -13835,31 +14162,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="687"/>
+      <c r="B3" s="668"/>
       <c r="C3" s="41"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -13867,33 +14194,33 @@
       <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B4" s="688" t="s">
+      <c r="B4" s="669" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="675" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="675" t="s">
+      <c r="L4" s="689" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B5" s="689" t="s">
+      <c r="B5" s="670" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -13917,11 +14244,11 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="675"/>
-      <c r="L5" s="675"/>
+      <c r="K5" s="689"/>
+      <c r="L5" s="689"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickTop="1">
-      <c r="B6" s="690"/>
+      <c r="B6" s="671"/>
       <c r="C6" s="93"/>
       <c r="D6" s="94"/>
       <c r="E6" s="195"/>
@@ -13931,7 +14258,7 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="691">
+      <c r="B7" s="672">
         <v>41639</v>
       </c>
       <c r="C7" s="258" t="s">
@@ -13956,7 +14283,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="692"/>
+      <c r="B8" s="673"/>
       <c r="C8" s="38"/>
       <c r="D8" s="397"/>
       <c r="E8" s="147"/>
@@ -13969,7 +14296,7 @@
       <c r="L8" s="272"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="693"/>
+      <c r="B9" s="674"/>
       <c r="C9" s="371"/>
       <c r="D9" s="396"/>
       <c r="E9" s="195"/>
@@ -13982,7 +14309,7 @@
       <c r="L9" s="272"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B10" s="698"/>
+      <c r="B10" s="679"/>
       <c r="C10" s="496"/>
       <c r="D10" s="519"/>
       <c r="E10" s="520"/>
@@ -14018,10 +14345,10 @@
   <dimension ref="B1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14042,28 +14369,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -14080,23 +14407,23 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="676" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="690" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="426"/>
-      <c r="M4" s="677" t="s">
+      <c r="M4" s="691" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14125,9 +14452,9 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="676"/>
+      <c r="K5" s="690"/>
       <c r="L5" s="426"/>
-      <c r="M5" s="677"/>
+      <c r="M5" s="691"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickTop="1">
       <c r="B6" s="558"/>
@@ -17215,10 +17542,10 @@
   <dimension ref="B1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17239,28 +17566,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -17277,23 +17604,23 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="676" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="690" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="649"/>
-      <c r="M4" s="677" t="s">
+      <c r="M4" s="691" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17322,9 +17649,9 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="676"/>
+      <c r="K5" s="690"/>
       <c r="L5" s="649"/>
-      <c r="M5" s="677"/>
+      <c r="M5" s="691"/>
     </row>
     <row r="6" spans="2:13" ht="9" customHeight="1" thickTop="1">
       <c r="B6" s="654"/>
@@ -20245,13 +20572,302 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="680"/>
+      <c r="B1" s="680"/>
+      <c r="C1" s="680"/>
+      <c r="D1" s="680" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="680"/>
+      <c r="F1" s="680" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="680"/>
+      <c r="H1" s="680" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="680"/>
+      <c r="J1" s="680"/>
+      <c r="K1" s="680"/>
+      <c r="L1" s="680"/>
+      <c r="M1" s="680"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="680" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="680" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" s="680" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2" s="680" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2" s="680" t="s">
+        <v>740</v>
+      </c>
+      <c r="F2" s="680" t="s">
+        <v>739</v>
+      </c>
+      <c r="G2" s="680" t="s">
+        <v>740</v>
+      </c>
+      <c r="H2" s="680" t="s">
+        <v>739</v>
+      </c>
+      <c r="I2" s="680" t="s">
+        <v>740</v>
+      </c>
+      <c r="J2" s="680"/>
+      <c r="K2" s="680"/>
+      <c r="L2" s="680" t="s">
+        <v>741</v>
+      </c>
+      <c r="M2" s="680" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="681">
+        <v>41639</v>
+      </c>
+      <c r="B3" s="680" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="680"/>
+      <c r="D3" s="680"/>
+      <c r="E3" s="680"/>
+      <c r="F3" s="680">
+        <v>5</v>
+      </c>
+      <c r="G3" s="680">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="680">
+        <v>5</v>
+      </c>
+      <c r="I3" s="680">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="680"/>
+      <c r="K3" s="680"/>
+      <c r="L3" s="680" t="s">
+        <v>744</v>
+      </c>
+      <c r="M3" s="680" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="681">
+        <v>41640</v>
+      </c>
+      <c r="B4" s="680" t="s">
+        <v>746</v>
+      </c>
+      <c r="C4" s="680"/>
+      <c r="D4" s="680"/>
+      <c r="E4" s="680"/>
+      <c r="F4" s="680">
+        <v>1</v>
+      </c>
+      <c r="G4" s="680">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="680">
+        <v>6</v>
+      </c>
+      <c r="I4" s="680">
+        <v>60000</v>
+      </c>
+      <c r="J4" s="680"/>
+      <c r="K4" s="680"/>
+      <c r="L4" s="680" t="s">
+        <v>747</v>
+      </c>
+      <c r="M4" s="680" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="681">
+        <v>41641</v>
+      </c>
+      <c r="B5" s="680" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="680"/>
+      <c r="D5" s="680"/>
+      <c r="E5" s="680"/>
+      <c r="F5" s="680">
+        <v>2</v>
+      </c>
+      <c r="G5" s="680">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="680">
+        <v>8</v>
+      </c>
+      <c r="I5" s="680">
+        <v>80000</v>
+      </c>
+      <c r="J5" s="680"/>
+      <c r="K5" s="680"/>
+      <c r="L5" s="680"/>
+      <c r="M5" s="680"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="681">
+        <v>41642</v>
+      </c>
+      <c r="B6" s="680" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" s="680"/>
+      <c r="D6" s="680"/>
+      <c r="E6" s="680"/>
+      <c r="F6" s="680">
+        <v>3</v>
+      </c>
+      <c r="G6" s="680">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="680">
+        <v>11</v>
+      </c>
+      <c r="I6" s="680">
+        <v>110000</v>
+      </c>
+      <c r="J6" s="680"/>
+      <c r="K6" s="680"/>
+      <c r="L6" s="680"/>
+      <c r="M6" s="680"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="681">
+        <v>41643</v>
+      </c>
+      <c r="B7" s="680" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" s="680" t="s">
+        <v>746</v>
+      </c>
+      <c r="D7" s="680">
+        <v>1</v>
+      </c>
+      <c r="E7" s="680">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="680"/>
+      <c r="G7" s="680"/>
+      <c r="H7" s="680">
+        <v>10</v>
+      </c>
+      <c r="I7" s="680">
+        <v>100000</v>
+      </c>
+      <c r="J7" s="680"/>
+      <c r="K7" s="680"/>
+      <c r="L7" s="680"/>
+      <c r="M7" s="680"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="681">
+        <v>41643</v>
+      </c>
+      <c r="B8" s="680" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="680" t="s">
+        <v>748</v>
+      </c>
+      <c r="D8" s="680">
+        <v>2</v>
+      </c>
+      <c r="E8" s="680">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="680"/>
+      <c r="G8" s="680"/>
+      <c r="H8" s="680">
+        <v>8</v>
+      </c>
+      <c r="I8" s="680">
+        <v>80000</v>
+      </c>
+      <c r="J8" s="680"/>
+      <c r="K8" s="680"/>
+      <c r="L8" s="680"/>
+      <c r="M8" s="680"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="681">
+        <v>41643</v>
+      </c>
+      <c r="B9" s="680" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" s="680" t="s">
+        <v>749</v>
+      </c>
+      <c r="D9" s="680">
+        <v>3</v>
+      </c>
+      <c r="E9" s="680">
+        <v>30000</v>
+      </c>
+      <c r="F9" s="680"/>
+      <c r="G9" s="680"/>
+      <c r="H9" s="680">
+        <v>5</v>
+      </c>
+      <c r="I9" s="680">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="680"/>
+      <c r="K9" s="680"/>
+      <c r="L9" s="680"/>
+      <c r="M9" s="680"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="701"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20272,28 +20888,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="B1" s="672" t="s">
+      <c r="B1" s="686" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
+      <c r="C1" s="686"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="B2" s="672" t="s">
+      <c r="B2" s="686" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
+      <c r="C2" s="686"/>
+      <c r="D2" s="686"/>
+      <c r="E2" s="686"/>
+      <c r="F2" s="686"/>
+      <c r="G2" s="686"/>
+      <c r="H2" s="686"/>
+      <c r="I2" s="686"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1">
       <c r="B3" s="158"/>
@@ -20310,23 +20926,23 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="680" t="s">
+      <c r="D4" s="694" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="681"/>
-      <c r="F4" s="678" t="s">
+      <c r="E4" s="695"/>
+      <c r="F4" s="692" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="679"/>
-      <c r="H4" s="678" t="s">
+      <c r="G4" s="693"/>
+      <c r="H4" s="692" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="679"/>
-      <c r="K4" s="676" t="s">
+      <c r="I4" s="693"/>
+      <c r="K4" s="690" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="649"/>
-      <c r="M4" s="677" t="s">
+      <c r="M4" s="691" t="s">
         <v>23</v>
       </c>
     </row>
@@ -20355,9 +20971,9 @@
       <c r="I5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="676"/>
+      <c r="K5" s="690"/>
       <c r="L5" s="649"/>
-      <c r="M5" s="677"/>
+      <c r="M5" s="691"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickTop="1">
       <c r="B6" s="654"/>
@@ -22152,15 +22768,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E157" sqref="E157"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22179,24 +22795,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="682" t="s">
+      <c r="B1" s="696" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="682"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="682" t="s">
+      <c r="B2" s="696" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
+      <c r="C2" s="696"/>
+      <c r="D2" s="696"/>
+      <c r="E2" s="696"/>
+      <c r="F2" s="696"/>
+      <c r="G2" s="696"/>
     </row>
     <row r="3" spans="2:10" ht="13.5" thickBot="1">
       <c r="B3" s="153"/>
@@ -22213,7 +22829,7 @@
       <c r="C4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="683" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="73" t="s">
@@ -22225,10 +22841,10 @@
       <c r="G4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -22239,7 +22855,7 @@
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="670"/>
+      <c r="D5" s="684"/>
       <c r="E5" s="74" t="s">
         <v>16</v>
       </c>
@@ -22249,8 +22865,8 @@
       <c r="G5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" thickTop="1">
       <c r="B6" s="557"/>
@@ -26932,15 +27548,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -26959,24 +27575,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="683" t="s">
+      <c r="B1" s="697" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="683"/>
-      <c r="D1" s="683"/>
-      <c r="E1" s="683"/>
-      <c r="F1" s="683"/>
-      <c r="G1" s="683"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
+      <c r="E1" s="697"/>
+      <c r="F1" s="697"/>
+      <c r="G1" s="697"/>
     </row>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="683" t="s">
+      <c r="B2" s="697" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="683"/>
-      <c r="D2" s="683"/>
-      <c r="E2" s="683"/>
-      <c r="F2" s="683"/>
-      <c r="G2" s="683"/>
+      <c r="C2" s="697"/>
+      <c r="D2" s="697"/>
+      <c r="E2" s="697"/>
+      <c r="F2" s="697"/>
+      <c r="G2" s="697"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" thickBot="1">
       <c r="B3" s="239"/>
@@ -26993,7 +27609,7 @@
       <c r="C4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="684" t="s">
+      <c r="D4" s="698" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="367" t="s">
@@ -27005,10 +27621,10 @@
       <c r="G4" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27019,7 +27635,7 @@
       <c r="C5" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="685"/>
+      <c r="D5" s="699"/>
       <c r="E5" s="368" t="s">
         <v>16</v>
       </c>
@@ -27029,8 +27645,8 @@
       <c r="G5" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="2:10" ht="13.5" thickTop="1">
       <c r="B6" s="557"/>
@@ -29220,12 +29836,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
@@ -29248,26 +29864,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="58"/>
-      <c r="B1" s="686" t="s">
+      <c r="B1" s="700" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="686"/>
-      <c r="D1" s="686"/>
-      <c r="E1" s="686"/>
-      <c r="F1" s="686"/>
-      <c r="G1" s="686"/>
+      <c r="C1" s="700"/>
+      <c r="D1" s="700"/>
+      <c r="E1" s="700"/>
+      <c r="F1" s="700"/>
+      <c r="G1" s="700"/>
       <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="58"/>
-      <c r="B2" s="686" t="s">
+      <c r="B2" s="700" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="686"/>
-      <c r="D2" s="686"/>
-      <c r="E2" s="686"/>
-      <c r="F2" s="686"/>
-      <c r="G2" s="686"/>
+      <c r="C2" s="700"/>
+      <c r="D2" s="700"/>
+      <c r="E2" s="700"/>
+      <c r="F2" s="700"/>
+      <c r="G2" s="700"/>
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
@@ -29288,7 +29904,7 @@
       <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="673" t="s">
+      <c r="D4" s="687" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -29301,10 +29917,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="67"/>
-      <c r="I4" s="671" t="s">
+      <c r="I4" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="671" t="s">
+      <c r="J4" s="685" t="s">
         <v>23</v>
       </c>
     </row>
@@ -29316,7 +29932,7 @@
       <c r="C5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="674"/>
+      <c r="D5" s="688"/>
       <c r="E5" s="48" t="s">
         <v>16</v>
       </c>
@@ -29327,8 +29943,8 @@
         <v>17</v>
       </c>
       <c r="H5" s="67"/>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
+      <c r="I5" s="685"/>
+      <c r="J5" s="685"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" thickTop="1">
       <c r="A6" s="58"/>
@@ -30660,278 +31276,4 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="164" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="82" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="53" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="40" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="18.75">
-      <c r="B1" s="672" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-    </row>
-    <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="672" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B3" s="158"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B4" s="159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="673" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="291" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="671" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="671" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="674"/>
-      <c r="E5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="292" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickTop="1">
-      <c r="B6" s="174"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="293"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="271">
-        <v>41857</v>
-      </c>
-      <c r="C7" s="145" t="s">
-        <v>641</v>
-      </c>
-      <c r="D7" s="448"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="92">
-        <v>500000</v>
-      </c>
-      <c r="G7" s="456">
-        <f>F7</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="462"/>
-      <c r="C8" s="446"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="463"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="478"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="271"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="448"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="280">
-        <f>F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="462"/>
-      <c r="C10" s="446"/>
-      <c r="D10" s="461"/>
-      <c r="E10" s="463"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="478">
-        <f>G9-E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="271"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="448"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="473"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="492"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="493"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="473"/>
-    </row>
-    <row r="13" spans="2:10" s="54" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B13" s="358"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="359"/>
-      <c r="G13" s="356"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickTop="1">
-      <c r="B14" s="449"/>
-      <c r="C14" s="450"/>
-      <c r="D14" s="451"/>
-      <c r="E14" s="452"/>
-      <c r="F14" s="452"/>
-      <c r="G14" s="453"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="165"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="454"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="455"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="165"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="454"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="455"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="165"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="454"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="455"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="165"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="454"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="455"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="165"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="454"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="455"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="165"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="454"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="455"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="165"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="454"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="455"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="176"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="294"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="176"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="294"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-  </mergeCells>
-  <pageMargins left="0.31496062992125984" right="0.47244094488188981" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>